--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2207.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2207.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9909239989179657</v>
+        <v>0.9258052110671997</v>
       </c>
       <c r="B1">
-        <v>1.565347781240596</v>
+        <v>2.03331184387207</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>8.755983352661133</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.864662289619446</v>
       </c>
       <c r="E1">
-        <v>1.089215710423902</v>
+        <v>1.426128149032593</v>
       </c>
     </row>
   </sheetData>
